--- a/author_files/les étudiants.xlsx
+++ b/author_files/les étudiants.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delli7\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delli7\Desktop\cours_feedback\author_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6232C6C-49DA-4781-8E3D-EF10720C8859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15584F5-0335-4EDE-B877-4442508D704D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2C6028CB-D5F1-4ED9-8738-F3DBB0E54585}"/>
   </bookViews>
@@ -1357,7 +1357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1675,7 +1675,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1685,7 +1685,7 @@
     <col min="3" max="3" width="21.54296875" customWidth="1"/>
     <col min="4" max="4" width="14.90625" customWidth="1"/>
     <col min="5" max="5" width="10.90625" style="1"/>
-    <col min="6" max="6" width="14.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
@@ -2917,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2C2980-1FF4-4EE3-AFF2-B50A93BB5ADE}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/author_files/les étudiants.xlsx
+++ b/author_files/les étudiants.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delli7\Desktop\cours_feedback\author_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D6FAE9-7193-4218-ACC1-71EF8006BBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3542347A-76D4-4F1A-A8F5-256DE9489BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2C6028CB-D5F1-4ED9-8738-F3DBB0E54585}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="282">
   <si>
     <t>matricule</t>
   </si>
@@ -864,13 +864,7 @@
     <t>intitulé_dep</t>
   </si>
   <si>
-    <t>2024-2025</t>
-  </si>
-  <si>
     <t>Tronc commun</t>
-  </si>
-  <si>
-    <t>lib_annee_univ</t>
   </si>
   <si>
     <t>SDID L2</t>
@@ -1300,10 +1294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE96FA0-6B3C-496F-BEE5-1A7002244E07}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1312,10 +1306,9 @@
     <col min="2" max="2" width="51.08984375" customWidth="1"/>
     <col min="3" max="3" width="21.54296875" customWidth="1"/>
     <col min="4" max="4" width="16.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1328,11 +1321,8 @@
       <c r="D1" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>23602</v>
       </c>
@@ -1343,13 +1333,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>23616</v>
       </c>
@@ -1360,13 +1347,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>23620</v>
       </c>
@@ -1377,13 +1361,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>23629</v>
       </c>
@@ -1394,13 +1375,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>23631</v>
       </c>
@@ -1411,13 +1389,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>23638</v>
       </c>
@@ -1428,13 +1403,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>23650</v>
       </c>
@@ -1445,13 +1417,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>23653</v>
       </c>
@@ -1462,13 +1431,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>23663</v>
       </c>
@@ -1479,13 +1445,10 @@
         <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>24601</v>
       </c>
@@ -1496,13 +1459,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>24602</v>
       </c>
@@ -1513,13 +1473,10 @@
         <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>24603</v>
       </c>
@@ -1530,13 +1487,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>24604</v>
       </c>
@@ -1547,13 +1501,10 @@
         <v>15</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>24606</v>
       </c>
@@ -1564,13 +1515,10 @@
         <v>16</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>24607</v>
       </c>
@@ -1581,13 +1529,10 @@
         <v>17</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>24608</v>
       </c>
@@ -1598,13 +1543,10 @@
         <v>18</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>24609</v>
       </c>
@@ -1615,13 +1557,10 @@
         <v>19</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>24610</v>
       </c>
@@ -1632,13 +1571,10 @@
         <v>20</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>24611</v>
       </c>
@@ -1649,13 +1585,10 @@
         <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>24612</v>
       </c>
@@ -1666,13 +1599,10 @@
         <v>22</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>24613</v>
       </c>
@@ -1683,13 +1613,10 @@
         <v>23</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>24614</v>
       </c>
@@ -1700,13 +1627,10 @@
         <v>24</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>24615</v>
       </c>
@@ -1717,13 +1641,10 @@
         <v>25</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>24616</v>
       </c>
@@ -1734,13 +1655,10 @@
         <v>26</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>24617</v>
       </c>
@@ -1751,13 +1669,10 @@
         <v>27</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>24618</v>
       </c>
@@ -1768,13 +1683,10 @@
         <v>28</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>24619</v>
       </c>
@@ -1785,13 +1697,10 @@
         <v>29</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>24620</v>
       </c>
@@ -1802,13 +1711,10 @@
         <v>30</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>24621</v>
       </c>
@@ -1819,13 +1725,10 @@
         <v>31</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>24622</v>
       </c>
@@ -1836,13 +1739,10 @@
         <v>32</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>24623</v>
       </c>
@@ -1853,13 +1753,10 @@
         <v>33</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>24625</v>
       </c>
@@ -1870,13 +1767,10 @@
         <v>34</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>24626</v>
       </c>
@@ -1887,13 +1781,10 @@
         <v>35</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>24627</v>
       </c>
@@ -1904,13 +1795,10 @@
         <v>36</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>24628</v>
       </c>
@@ -1921,13 +1809,10 @@
         <v>37</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>24629</v>
       </c>
@@ -1938,13 +1823,10 @@
         <v>38</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>24630</v>
       </c>
@@ -1955,13 +1837,10 @@
         <v>39</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>24631</v>
       </c>
@@ -1972,13 +1851,10 @@
         <v>40</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>24632</v>
       </c>
@@ -1989,13 +1865,10 @@
         <v>41</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>24633</v>
       </c>
@@ -2006,13 +1879,10 @@
         <v>42</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>24634</v>
       </c>
@@ -2023,13 +1893,10 @@
         <v>43</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>24635</v>
       </c>
@@ -2040,13 +1907,10 @@
         <v>44</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>24636</v>
       </c>
@@ -2057,13 +1921,10 @@
         <v>45</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>24637</v>
       </c>
@@ -2074,13 +1935,10 @@
         <v>46</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>24638</v>
       </c>
@@ -2091,13 +1949,10 @@
         <v>47</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>24639</v>
       </c>
@@ -2108,13 +1963,10 @@
         <v>48</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>24640</v>
       </c>
@@ -2125,13 +1977,10 @@
         <v>49</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>24641</v>
       </c>
@@ -2142,13 +1991,10 @@
         <v>50</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>24642</v>
       </c>
@@ -2159,13 +2005,10 @@
         <v>51</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>24643</v>
       </c>
@@ -2176,13 +2019,10 @@
         <v>52</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>24644</v>
       </c>
@@ -2193,13 +2033,10 @@
         <v>53</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>24645</v>
       </c>
@@ -2210,13 +2047,10 @@
         <v>54</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>24646</v>
       </c>
@@ -2227,13 +2061,10 @@
         <v>55</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>24647</v>
       </c>
@@ -2244,13 +2075,10 @@
         <v>56</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>24648</v>
       </c>
@@ -2261,13 +2089,10 @@
         <v>57</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>24649</v>
       </c>
@@ -2278,13 +2103,10 @@
         <v>58</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>24650</v>
       </c>
@@ -2295,13 +2117,10 @@
         <v>59</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>24651</v>
       </c>
@@ -2312,13 +2131,10 @@
         <v>60</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>24652</v>
       </c>
@@ -2329,13 +2145,10 @@
         <v>61</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>24653</v>
       </c>
@@ -2346,9 +2159,6 @@
         <v>62</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E61" s="9" t="s">
         <v>278</v>
       </c>
     </row>
@@ -2360,10 +2170,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2C2980-1FF4-4EE3-AFF2-B50A93BB5ADE}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2371,10 +2181,9 @@
     <col min="2" max="2" width="46.81640625" customWidth="1"/>
     <col min="3" max="3" width="19.81640625" customWidth="1"/>
     <col min="4" max="4" width="13.7265625" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2387,11 +2196,8 @@
       <c r="D1" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>23605</v>
       </c>
@@ -2402,13 +2208,10 @@
         <v>144</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>23607</v>
       </c>
@@ -2419,13 +2222,10 @@
         <v>145</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>23609</v>
       </c>
@@ -2436,13 +2236,10 @@
         <v>146</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>23612</v>
       </c>
@@ -2453,13 +2250,10 @@
         <v>147</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>23614</v>
       </c>
@@ -2470,13 +2264,10 @@
         <v>148</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>23618</v>
       </c>
@@ -2487,13 +2278,10 @@
         <v>149</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>23623</v>
       </c>
@@ -2504,13 +2292,10 @@
         <v>150</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>23626</v>
       </c>
@@ -2521,13 +2306,10 @@
         <v>151</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>23634</v>
       </c>
@@ -2538,13 +2320,10 @@
         <v>152</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>23635</v>
       </c>
@@ -2555,13 +2334,10 @@
         <v>153</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>23636</v>
       </c>
@@ -2572,13 +2348,10 @@
         <v>154</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>23637</v>
       </c>
@@ -2589,13 +2362,10 @@
         <v>155</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>23639</v>
       </c>
@@ -2606,13 +2376,10 @@
         <v>156</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>23642</v>
       </c>
@@ -2623,13 +2390,10 @@
         <v>157</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>23644</v>
       </c>
@@ -2640,13 +2404,10 @@
         <v>158</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>23647</v>
       </c>
@@ -2657,13 +2418,10 @@
         <v>159</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>23651</v>
       </c>
@@ -2674,13 +2432,10 @@
         <v>160</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>23654</v>
       </c>
@@ -2691,13 +2446,10 @@
         <v>161</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>23656</v>
       </c>
@@ -2708,13 +2460,10 @@
         <v>162</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>23657</v>
       </c>
@@ -2725,13 +2474,10 @@
         <v>163</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>23658</v>
       </c>
@@ -2742,40 +2488,37 @@
         <v>164</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D25" s="10"/>
     </row>
-    <row r="26" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D27" s="10"/>
     </row>
-    <row r="28" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D28" s="10"/>
     </row>
-    <row r="29" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D32" s="10"/>
     </row>
     <row r="33" spans="4:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -2873,10 +2616,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA038000-53D9-40E7-9864-9511B689BF96}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2884,10 +2627,9 @@
     <col min="2" max="2" width="45.08984375" customWidth="1"/>
     <col min="3" max="3" width="22.08984375" customWidth="1"/>
     <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2900,11 +2642,8 @@
       <c r="D1" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>22640</v>
       </c>
@@ -2915,13 +2654,10 @@
         <v>188</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>23603</v>
       </c>
@@ -2932,13 +2668,10 @@
         <v>189</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>23604</v>
       </c>
@@ -2949,13 +2682,10 @@
         <v>190</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>23606</v>
       </c>
@@ -2966,13 +2696,10 @@
         <v>191</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>23610</v>
       </c>
@@ -2983,13 +2710,10 @@
         <v>192</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>23613</v>
       </c>
@@ -3000,13 +2724,10 @@
         <v>193</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>23615</v>
       </c>
@@ -3017,13 +2738,10 @@
         <v>194</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>23621</v>
       </c>
@@ -3034,13 +2752,10 @@
         <v>195</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>23622</v>
       </c>
@@ -3051,13 +2766,10 @@
         <v>196</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>23624</v>
       </c>
@@ -3068,13 +2780,10 @@
         <v>197</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>23625</v>
       </c>
@@ -3085,13 +2794,10 @@
         <v>198</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>23627</v>
       </c>
@@ -3102,13 +2808,10 @@
         <v>199</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>23630</v>
       </c>
@@ -3119,13 +2822,10 @@
         <v>200</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>23632</v>
       </c>
@@ -3136,13 +2836,10 @@
         <v>201</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>23641</v>
       </c>
@@ -3153,13 +2850,10 @@
         <v>202</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>23645</v>
       </c>
@@ -3170,13 +2864,10 @@
         <v>203</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>23646</v>
       </c>
@@ -3187,13 +2878,10 @@
         <v>204</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>23648</v>
       </c>
@@ -3204,13 +2892,10 @@
         <v>205</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>23649</v>
       </c>
@@ -3221,13 +2906,10 @@
         <v>206</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>23655</v>
       </c>
@@ -3238,13 +2920,10 @@
         <v>207</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>23659</v>
       </c>
@@ -3255,13 +2934,10 @@
         <v>208</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>23660</v>
       </c>
@@ -3272,13 +2948,10 @@
         <v>209</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>23662</v>
       </c>
@@ -3289,10 +2962,7 @@
         <v>210</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3302,10 +2972,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0820FEF8-EF4E-436C-97D6-E5D468D07885}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3314,10 +2984,9 @@
     <col min="2" max="2" width="46.36328125" customWidth="1"/>
     <col min="3" max="3" width="21.6328125" customWidth="1"/>
     <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3330,11 +2999,8 @@
       <c r="D1" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>21305</v>
       </c>
@@ -3345,13 +3011,10 @@
         <v>244</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>22601</v>
       </c>
@@ -3362,13 +3025,10 @@
         <v>245</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>22602</v>
       </c>
@@ -3379,13 +3039,10 @@
         <v>246</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>22604</v>
       </c>
@@ -3396,13 +3053,10 @@
         <v>247</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>22607</v>
       </c>
@@ -3413,13 +3067,10 @@
         <v>248</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>22608</v>
       </c>
@@ -3430,13 +3081,10 @@
         <v>249</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>22610</v>
       </c>
@@ -3447,13 +3095,10 @@
         <v>250</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>22611</v>
       </c>
@@ -3464,13 +3109,10 @@
         <v>251</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>22612</v>
       </c>
@@ -3481,13 +3123,10 @@
         <v>252</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>22613</v>
       </c>
@@ -3498,13 +3137,10 @@
         <v>253</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>22614</v>
       </c>
@@ -3515,13 +3151,10 @@
         <v>254</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>22615</v>
       </c>
@@ -3532,13 +3165,10 @@
         <v>255</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>22616</v>
       </c>
@@ -3549,13 +3179,10 @@
         <v>256</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>22617</v>
       </c>
@@ -3566,13 +3193,10 @@
         <v>257</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>22618</v>
       </c>
@@ -3583,13 +3207,10 @@
         <v>258</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>22619</v>
       </c>
@@ -3600,13 +3221,10 @@
         <v>259</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>22620</v>
       </c>
@@ -3617,13 +3235,10 @@
         <v>260</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>22621</v>
       </c>
@@ -3634,13 +3249,10 @@
         <v>261</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>22623</v>
       </c>
@@ -3651,13 +3263,10 @@
         <v>262</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>22624</v>
       </c>
@@ -3668,13 +3277,10 @@
         <v>263</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>22625</v>
       </c>
@@ -3685,13 +3291,10 @@
         <v>264</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>22626</v>
       </c>
@@ -3702,13 +3305,10 @@
         <v>265</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>22627</v>
       </c>
@@ -3719,13 +3319,10 @@
         <v>266</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>22630</v>
       </c>
@@ -3736,13 +3333,10 @@
         <v>267</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>22631</v>
       </c>
@@ -3753,13 +3347,10 @@
         <v>268</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>22632</v>
       </c>
@@ -3770,13 +3361,10 @@
         <v>269</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>22633</v>
       </c>
@@ -3787,13 +3375,10 @@
         <v>270</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>22634</v>
       </c>
@@ -3804,13 +3389,10 @@
         <v>271</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>22635</v>
       </c>
@@ -3821,13 +3403,10 @@
         <v>272</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>22636</v>
       </c>
@@ -3838,13 +3417,10 @@
         <v>273</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>22637</v>
       </c>
@@ -3855,13 +3431,10 @@
         <v>274</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>22638</v>
       </c>
@@ -3872,13 +3445,10 @@
         <v>275</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>22639</v>
       </c>
@@ -3889,10 +3459,7 @@
         <v>276</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/author_files/les étudiants.xlsx
+++ b/author_files/les étudiants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delli7\Desktop\cours_feedback\author_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3542347A-76D4-4F1A-A8F5-256DE9489BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D11D74B-7545-48C9-90E7-A6AB379A7098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2C6028CB-D5F1-4ED9-8738-F3DBB0E54585}"/>
   </bookViews>
@@ -1296,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE96FA0-6B3C-496F-BEE5-1A7002244E07}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2172,7 +2172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2C2980-1FF4-4EE3-AFF2-B50A93BB5ADE}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
